--- a/实验5：软件测试评审/他组对本组评审/初评审/对I组_软件评审结果反馈.xlsx
+++ b/实验5：软件测试评审/他组对本组评审/初评审/对I组_软件评审结果反馈.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/软工实验/20_F/实验5：软件测试评审/他组对本组评审/初评审/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A8B8E5-C552-1040-8930-3A8D5D57CBC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3B1311-6687-4F44-BA85-BAB48A8C5074}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1420" windowWidth="21760" windowHeight="15580" xr2:uid="{1DC37F99-3657-DF45-9651-53261069B723}"/>
+    <workbookView xWindow="12000" yWindow="1740" windowWidth="16780" windowHeight="15580" xr2:uid="{1DC37F99-3657-DF45-9651-53261069B723}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>序号</t>
   </si>
@@ -57,18 +57,12 @@
     <t>正常</t>
   </si>
   <si>
-    <t>文档说明是所有的仓库协作者能收到消息</t>
-  </si>
-  <si>
     <t>轻微</t>
   </si>
   <si>
     <t>修改用例说明，明确收到消息的人</t>
   </si>
   <si>
-    <t>被添加的协作者收到微信公众号的消息通知</t>
-  </si>
-  <si>
     <t>被添加的协作者未收到微信公众号的消息通知</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>未收到微信公众号消息通知；未收到网页推送通知</t>
   </si>
   <si>
-    <t>被添加的协作者收到网页消息通知</t>
-  </si>
-  <si>
     <t>未收到网页消息通知</t>
   </si>
   <si>
@@ -95,21 +86,6 @@
   <si>
     <t>对I组--软件评审结果反馈</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TestCase011 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中对于收到合并消息的对象表述错误</t>
-    </r>
   </si>
   <si>
     <r>
@@ -335,59 +311,6 @@
         <family val="1"/>
       </rPr>
       <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一步未能触发通知</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TestCase009 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>创建</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>issue”</t>
     </r>
     <r>
       <rPr>
@@ -442,6 +365,96 @@
   </si>
   <si>
     <t>接受，已修改用例说明。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TestCase011 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中对于收到合并消息的对象表述错误</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TestCase009 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>issue”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一步未能触发通知</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档说明是所有的仓库协作者能收到消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被添加的协作者收到微信公众号的消息通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被添加的协作者未收到微信公众号的消息通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被添加的协作者收到网页消息通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未收到网页消息通知</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,32 +602,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -932,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36447DB8-8E87-6647-A0CB-33123C5F7695}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -948,16 +961,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23">
-      <c r="A1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="A1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
@@ -982,69 +995,69 @@
         <v>6</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="53" customHeight="1">
-      <c r="A3" s="6">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>32</v>
+      <c r="H3" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="10"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="48">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>30</v>
+      <c r="H5" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="48">
@@ -1052,97 +1065,97 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="48">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="48">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="51">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>31</v>
+        <v>12</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
